--- a/Traduzido/PTBR/Lang/PTBR/Dialog/Drama/ashland.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Dialog/Drama/ashland.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Dialog\Drama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Dialog\Drama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59EE02D-3E3A-4D35-92DE-27A812E4D816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3092E2EE-8F57-4AED-B1A2-58EA4BACF134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="373">
   <si>
     <t>step</t>
   </si>
@@ -1461,6 +1461,28 @@
   </si>
   <si>
     <t>Entendido. Se é isso que você quer, então faça como desejar. Se algum dia mudar de ideia, sinta-se à vontade para falar comigo novamente.</t>
+  </si>
+  <si>
+    <t>Fico feliz em ver seu rosto novamente. O desenvolvimento da base está progredindo bem?</t>
+  </si>
+  <si>
+    <t>Você já se acostumou com a vida em Tyris? De vez em quando, vale a pena fazer uma viagem e visitar cidades em diferentes regiões.</t>
+  </si>
+  <si>
+    <t>Parece que você já pode se mover sem problemas.
+Eu sou Ashland. Estou a caminho da capital, Palmia, com um acompanhante por um determinado motivo. Pelo visto, você não conhece muito bem esta região. Talvez eu possa te passar algumas dicas de vida até retomarmos nossa jornada. Claro, se você desejar.</t>
+  </si>
+  <si>
+    <t>O que é a escritura de propriedade?</t>
+  </si>
+  <si>
+    <t>Qual é o objetivo da colonização?</t>
+  </si>
+  <si>
+    <t>Quero que me ensine algumas dicas de vida.</t>
+  </si>
+  <si>
+    <t>Tenho algo que gostaria de perguntar.</t>
   </si>
 </sst>
 </file>
@@ -1767,7 +1789,7 @@
     <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3:L1048576"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5"/>
@@ -1875,7 +1897,7 @@
         <v>117</v>
       </c>
       <c r="J15" t="s">
-        <v>260</v>
+        <v>366</v>
       </c>
       <c r="K15" t="s">
         <v>22</v>
@@ -1895,7 +1917,7 @@
         <v>118</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>261</v>
+        <v>367</v>
       </c>
       <c r="K16" t="s">
         <v>25</v>
@@ -1912,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>262</v>
+        <v>368</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>27</v>
@@ -1940,7 +1962,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>263</v>
+        <v>369</v>
       </c>
       <c r="K20" t="s">
         <v>31</v>
@@ -1963,7 +1985,7 @@
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>258</v>
+        <v>370</v>
       </c>
       <c r="K21" t="s">
         <v>34</v>
@@ -1983,7 +2005,7 @@
         <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>264</v>
+        <v>371</v>
       </c>
       <c r="K22" t="s">
         <v>36</v>
@@ -2003,7 +2025,7 @@
         <v>5</v>
       </c>
       <c r="J23" t="s">
-        <v>259</v>
+        <v>372</v>
       </c>
       <c r="K23" t="s">
         <v>38</v>

--- a/Traduzido/PTBR/Lang/PTBR/Dialog/Drama/ashland.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Dialog/Drama/ashland.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Dialog\Drama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Dialog\Drama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3092E2EE-8F57-4AED-B1A2-58EA4BACF134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD531FB-9430-436C-89C3-D0EC268132A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="376">
   <si>
     <t>step</t>
   </si>
@@ -1119,11 +1119,6 @@
 Inicialmente, a variedade de itens que você pode criar é limitada, mas conforme obtém novas receitas durante sua jornada, poderá fabricar uma grande variedade de itens úteis.</t>
   </si>
   <si>
-    <t>Ao fabricar itens, você pode usar ingredientes da sua mochila e de contêineres distantes, desde que pertençam a você._x000D_
-_x000D_
-Se você não tiver as habilidades necessárias para a criação, consumirá muita energia. Por isso, é recomendável aprimorar suas habilidades criando itens simples antes de tentar receitas de nível avançado.</t>
-  </si>
-  <si>
     <t>(Chegando!)</t>
   </si>
   <si>
@@ -1380,21 +1375,6 @@
 Você pode usá-las para pagar treinadores de habilidades na cidade e aprender novas técnicas.</t>
   </si>
   <si>
-    <t>Enquanto constrói sua base aqui, você precisa conhecer o "container compartilhado"._x000D_
-_x000D_
-O container compartilhado é um item essencial para que seus moradores possam viver e trabalhar. Preste atenção, pois vou explicar apenas uma vez.</t>
-  </si>
-  <si>
-    <t>Contêineres como caixotes e barris possuem um sistema de "permissões". Normalmente, apenas você pode mover itens dentro e fora de um contêiner, mas é possível transformá-lo em um container compartilhado clicando no ícone de "Cadeado" no lado direito do contêiner._x000D_
-_x000D_
-Os containers compartilhados podem ser acessados pelos moradores e membros do grupo. Quem estiver com fome poderá procurar comida neles e, se encontrar um bom equipamento, pode pegá-lo. Caso haja materiais necessários para o trabalho, eles serão consumidos automaticamente.</t>
-  </si>
-  <si>
-    <t>Além disso, fique atento à capacidade restante do container compartilhado, pois os moradores podem entregar produtos de trabalho ou itens que encontrarem._x000D_
-_x000D_
-Vou te dar esta caixa como recompensa por esta missão. Coloque-a no chão e tente transformá-la em um "container compartilhado".</t>
-  </si>
-  <si>
     <t>Parece que você configurou um container compartilhado com sucesso._x000D_
 _x000D_
 Ao alterar as configurações dos containers, você também pode criar containers que são usados com prioridade ou que permitem apenas a movimentação de itens de uma determinada categoria. Você pode testar isso mais tarde, quando precisar organizar os suprimentos da base.</t>
@@ -1483,6 +1463,38 @@
   </si>
   <si>
     <t>Tenho algo que gostaria de perguntar.</t>
+  </si>
+  <si>
+    <t>Enquanto constrói sua base aqui, você precisa conhecer o "Caixa Compartilhada".
+O container compartilhado é um item essencial para que seus moradores possam viver e trabalhar. Preste atenção, pois vou explicar apenas uma vez.</t>
+  </si>
+  <si>
+    <t>Enquanto constrói sua base aqui, você precisa conhecer o "Caixa Compartilhada"._x000D_
+_x000D_
+O container compartilhado é um item essencial para que seus moradores possam viver e trabalhar. Preste atenção, pois vou explicar apenas uma vez.</t>
+  </si>
+  <si>
+    <t>Além disso, fique atento à capacidade restante do container compartilhado, pois os moradores podem entregar produtos de trabalho ou itens que encontrarem._x000D_
+_x000D_
+Vou te dar esta caixa como recompensa por esta missão. Coloque-a no chão e tente transformá-la em um "Caixa Compartilhada".</t>
+  </si>
+  <si>
+    <t>Armazenamentos como Caixotes, Baús e Barris possuem um sistema de "permissões". Normalmente, apenas você pode mover itens dentro e fora de um contêiner, mas é possível transformá-lo em um container compartilhado clicando no ícone de "Cadeado" no lado direito do contêiner.
+Os containers compartilhados podem ser acessados pelos moradores e membros do grupo. Quem estiver com fome poderá procurar comida neles e, se encontrar um bom equipamento, pode pegá-lo. Caso haja materiais necessários para o trabalho, eles serão consumidos automaticamente.</t>
+  </si>
+  <si>
+    <t>Armazenamentos como Caixotes, Baús e Barris possuem um sistema de "permissões". Normalmente, apenas você pode mover itens dentro e fora de um contêiner, mas é possível transformá-lo em um container compartilhado clicando no ícone de "Cadeado" no lado direito do contêiner._x000D_
+_x000D_
+Os containers compartilhados podem ser acessados pelos moradores e membros do grupo. Quem estiver com fome poderá procurar comida neles e, se encontrar um bom equipamento, pode pegá-lo. Caso haja materiais necessários para o trabalho, eles serão consumidos automaticamente.</t>
+  </si>
+  <si>
+    <t>Ao fabricar itens, você pode usar ingredientes da sua Mochila, Caixas, Baús e de Contêineres distantes, desde que pertençam a você.
+Se você não tiver as habilidades necessárias para a criação, consumirá muita energia. Por isso, é recomendável aprimorar suas habilidades criando itens simples antes de tentar receitas de nível avançado.</t>
+  </si>
+  <si>
+    <t>Ao fabricar itens, você pode usar ingredientes da sua Mochila, Caixas, Baús e de Contêineres distantes, desde que pertençam a você._x000D_
+_x000D_
+Se você não tiver as habilidades necessárias para a criação, consumirá muita energia. Por isso, é recomendável aprimorar suas habilidades criando itens simples antes de tentar receitas de nível avançado.</t>
   </si>
 </sst>
 </file>
@@ -1787,9 +1799,9 @@
   <dimension ref="A1:L372"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomLeft" activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5"/>
@@ -1897,7 +1909,7 @@
         <v>117</v>
       </c>
       <c r="J15" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K15" t="s">
         <v>22</v>
@@ -1917,7 +1929,7 @@
         <v>118</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K16" t="s">
         <v>25</v>
@@ -1934,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>27</v>
@@ -1962,7 +1974,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="K20" t="s">
         <v>31</v>
@@ -1985,7 +1997,7 @@
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K21" t="s">
         <v>34</v>
@@ -2005,7 +2017,7 @@
         <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K22" t="s">
         <v>36</v>
@@ -2025,7 +2037,7 @@
         <v>5</v>
       </c>
       <c r="J23" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="K23" t="s">
         <v>38</v>
@@ -2815,13 +2827,13 @@
         <v>38</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>295</v>
+        <v>374</v>
       </c>
       <c r="K99" s="3" t="s">
         <v>113</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>295</v>
+        <v>375</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -2853,13 +2865,13 @@
         <v>39</v>
       </c>
       <c r="J105" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K105" t="s">
         <v>116</v>
       </c>
       <c r="L105" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -2891,13 +2903,13 @@
         <v>40</v>
       </c>
       <c r="J110" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K110" s="3" t="s">
         <v>119</v>
       </c>
       <c r="L110" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -2931,13 +2943,13 @@
         <v>41</v>
       </c>
       <c r="J116" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K116" s="3" t="s">
         <v>122</v>
       </c>
       <c r="L116" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -2971,13 +2983,13 @@
         <v>42</v>
       </c>
       <c r="J122" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K122" t="s">
         <v>116</v>
       </c>
       <c r="L122" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -2998,13 +3010,13 @@
         <v>43</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K133" s="3" t="s">
         <v>125</v>
       </c>
       <c r="L133" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="82.5">
@@ -3012,13 +3024,13 @@
         <v>44</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K134" s="3" t="s">
         <v>126</v>
       </c>
       <c r="L134" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -3036,13 +3048,13 @@
         <v>45</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K138" s="3" t="s">
         <v>127</v>
       </c>
       <c r="L138" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -3060,13 +3072,13 @@
         <v>47</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K142" s="3" t="s">
         <v>128</v>
       </c>
       <c r="L142" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="198">
@@ -3074,13 +3086,13 @@
         <v>48</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K143" s="3" t="s">
         <v>129</v>
       </c>
       <c r="L143" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="99">
@@ -3088,13 +3100,13 @@
         <v>49</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K144" s="3" t="s">
         <v>130</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -3112,13 +3124,13 @@
         <v>50</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K148" s="3" t="s">
         <v>131</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="148.5">
@@ -3126,13 +3138,13 @@
         <v>51</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K149" s="3" t="s">
         <v>132</v>
       </c>
       <c r="L149" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="132">
@@ -3140,13 +3152,13 @@
         <v>52</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K150" s="3" t="s">
         <v>133</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -3164,13 +3176,13 @@
         <v>53</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K156" s="3" t="s">
         <v>134</v>
       </c>
       <c r="L156" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="198">
@@ -3178,13 +3190,13 @@
         <v>54</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K157" s="3" t="s">
         <v>135</v>
       </c>
       <c r="L157" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -3202,13 +3214,13 @@
         <v>55</v>
       </c>
       <c r="J162" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K162" s="3" t="s">
         <v>136</v>
       </c>
       <c r="L162" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="99">
@@ -3216,13 +3228,13 @@
         <v>56</v>
       </c>
       <c r="J163" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K163" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L163" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -3384,13 +3396,13 @@
         <v>62</v>
       </c>
       <c r="J208" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K208" s="3" t="s">
         <v>159</v>
       </c>
       <c r="L208" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -3398,13 +3410,13 @@
         <v>63</v>
       </c>
       <c r="J209" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K209" t="s">
         <v>160</v>
       </c>
       <c r="L209" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -3430,13 +3442,13 @@
         <v>64</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K215" s="3" t="s">
         <v>163</v>
       </c>
       <c r="L215" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="216" spans="1:12" ht="99">
@@ -3444,13 +3456,13 @@
         <v>65</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K216" s="3" t="s">
         <v>164</v>
       </c>
       <c r="L216" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -3458,13 +3470,13 @@
         <v>66</v>
       </c>
       <c r="J217" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K217" t="s">
         <v>165</v>
       </c>
       <c r="L217" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -3472,13 +3484,13 @@
         <v>67</v>
       </c>
       <c r="J218" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K218" t="s">
         <v>166</v>
       </c>
       <c r="L218" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -3501,13 +3513,13 @@
         <v>68</v>
       </c>
       <c r="J222" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K222" s="3" t="s">
         <v>168</v>
       </c>
       <c r="L222" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -3525,13 +3537,13 @@
         <v>69</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K226" s="3" t="s">
         <v>170</v>
       </c>
       <c r="L226" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="227" spans="1:12" ht="148.5">
@@ -3539,13 +3551,13 @@
         <v>70</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K227" s="3" t="s">
         <v>171</v>
       </c>
       <c r="L227" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="228" spans="1:12" ht="82.5">
@@ -3553,13 +3565,13 @@
         <v>71</v>
       </c>
       <c r="J228" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K228" s="3" t="s">
         <v>172</v>
       </c>
       <c r="L228" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -3600,13 +3612,13 @@
         <v>72</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K239" s="3" t="s">
         <v>177</v>
       </c>
       <c r="L239" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -3622,13 +3634,13 @@
         <v>73</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K241" s="3" t="s">
         <v>179</v>
       </c>
       <c r="L241" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -3662,13 +3674,13 @@
         <v>74</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K248" s="3" t="s">
         <v>183</v>
       </c>
       <c r="L248" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -3708,13 +3720,13 @@
         <v>75</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K253" s="3" t="s">
         <v>190</v>
       </c>
       <c r="L253" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -3722,13 +3734,13 @@
         <v>76</v>
       </c>
       <c r="J254" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K254" t="s">
         <v>191</v>
       </c>
       <c r="L254" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="255" spans="1:12" ht="66">
@@ -3736,13 +3748,13 @@
         <v>77</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K255" s="3" t="s">
         <v>192</v>
       </c>
       <c r="L255" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="256" spans="1:12" ht="115.5">
@@ -3750,13 +3762,13 @@
         <v>78</v>
       </c>
       <c r="J256" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K256" s="3" t="s">
         <v>193</v>
       </c>
       <c r="L256" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="257" spans="1:12" ht="132">
@@ -3764,13 +3776,13 @@
         <v>79</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K257" s="3" t="s">
         <v>194</v>
       </c>
       <c r="L257" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="258" spans="1:12" ht="82.5">
@@ -3778,13 +3790,13 @@
         <v>80</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K258" s="3" t="s">
         <v>195</v>
       </c>
       <c r="L258" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="260" spans="1:12" ht="132">
@@ -3792,13 +3804,13 @@
         <v>81</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K260" s="3" t="s">
         <v>196</v>
       </c>
       <c r="L260" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -3829,13 +3841,13 @@
         <v>82</v>
       </c>
       <c r="J271" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K271" s="3" t="s">
         <v>199</v>
       </c>
       <c r="L271" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="272" spans="1:12" ht="115.5">
@@ -3843,13 +3855,13 @@
         <v>83</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K272" s="3" t="s">
         <v>200</v>
       </c>
       <c r="L272" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -3857,13 +3869,13 @@
         <v>84</v>
       </c>
       <c r="J273" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K273" t="s">
         <v>201</v>
       </c>
       <c r="L273" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -3889,13 +3901,13 @@
         <v>85</v>
       </c>
       <c r="J279" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K279" s="3" t="s">
         <v>204</v>
       </c>
       <c r="L279" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="280" spans="1:12" ht="82.5">
@@ -3903,13 +3915,13 @@
         <v>86</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K280" s="3" t="s">
         <v>205</v>
       </c>
       <c r="L280" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -3917,13 +3929,13 @@
         <v>102</v>
       </c>
       <c r="J281" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K281" t="s">
         <v>206</v>
       </c>
       <c r="L281" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -3941,13 +3953,13 @@
         <v>87</v>
       </c>
       <c r="J286" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K286" t="s">
         <v>208</v>
       </c>
       <c r="L286" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="287" spans="1:12" ht="82.5">
@@ -3955,13 +3967,13 @@
         <v>88</v>
       </c>
       <c r="J287" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K287" s="3" t="s">
         <v>209</v>
       </c>
       <c r="L287" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -3979,13 +3991,13 @@
         <v>89</v>
       </c>
       <c r="J291" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K291" t="s">
         <v>211</v>
       </c>
       <c r="L291" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="292" spans="1:12" ht="132">
@@ -3993,13 +4005,13 @@
         <v>90</v>
       </c>
       <c r="J292" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K292" s="3" t="s">
         <v>212</v>
       </c>
       <c r="L292" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -4022,13 +4034,13 @@
         <v>91</v>
       </c>
       <c r="J298" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K298" s="3" t="s">
         <v>214</v>
       </c>
       <c r="L298" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="299" spans="1:12" ht="82.5">
@@ -4036,13 +4048,13 @@
         <v>92</v>
       </c>
       <c r="J299" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K299" s="3" t="s">
         <v>215</v>
       </c>
       <c r="L299" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -4076,13 +4088,13 @@
         <v>93</v>
       </c>
       <c r="J305" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K305" s="3" t="s">
         <v>219</v>
       </c>
       <c r="L305" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="306" spans="1:12" ht="165">
@@ -4090,13 +4102,13 @@
         <v>94</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K306" s="3" t="s">
         <v>220</v>
       </c>
       <c r="L306" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -4122,13 +4134,13 @@
         <v>95</v>
       </c>
       <c r="J311" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K311" s="3" t="s">
         <v>223</v>
       </c>
       <c r="L311" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="312" spans="1:12" ht="115.5">
@@ -4136,13 +4148,13 @@
         <v>96</v>
       </c>
       <c r="J312" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K312" s="3" t="s">
         <v>224</v>
       </c>
       <c r="L312" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -4165,13 +4177,13 @@
         <v>97</v>
       </c>
       <c r="J317" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K317" s="3" t="s">
         <v>226</v>
       </c>
       <c r="L317" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -4189,13 +4201,13 @@
         <v>98</v>
       </c>
       <c r="J323" s="3" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="K323" s="3" t="s">
         <v>228</v>
       </c>
       <c r="L323" s="3" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
     </row>
     <row r="324" spans="1:12" ht="148.5">
@@ -4203,13 +4215,13 @@
         <v>99</v>
       </c>
       <c r="J324" s="3" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="K324" s="3" t="s">
         <v>229</v>
       </c>
       <c r="L324" s="3" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
     </row>
     <row r="325" spans="1:12" ht="82.5">
@@ -4217,13 +4229,13 @@
         <v>100</v>
       </c>
       <c r="J325" s="3" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="K325" s="3" t="s">
         <v>230</v>
       </c>
       <c r="L325" s="3" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -4262,13 +4274,13 @@
         <v>101</v>
       </c>
       <c r="J334" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K334" s="3" t="s">
         <v>234</v>
       </c>
       <c r="L334" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -4294,13 +4306,13 @@
         <v>103</v>
       </c>
       <c r="J341" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K341" s="4" t="s">
         <v>237</v>
       </c>
       <c r="L341" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="342" spans="1:12" ht="57">
@@ -4308,13 +4320,13 @@
         <v>120</v>
       </c>
       <c r="J342" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K342" s="4" t="s">
         <v>238</v>
       </c>
       <c r="L342" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -4328,13 +4340,13 @@
         <v>121</v>
       </c>
       <c r="J343" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K343" s="4" t="s">
         <v>240</v>
       </c>
       <c r="L343" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -4348,13 +4360,13 @@
         <v>122</v>
       </c>
       <c r="J344" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="K344" s="4" t="s">
         <v>242</v>
       </c>
       <c r="L344" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -4386,13 +4398,13 @@
         <v>125</v>
       </c>
       <c r="J348" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K348" s="4" t="s">
         <v>244</v>
       </c>
       <c r="L348" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -4420,13 +4432,13 @@
         <v>109</v>
       </c>
       <c r="J350" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K350" s="4" t="s">
         <v>247</v>
       </c>
       <c r="L350" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="351" spans="1:12" ht="57">
@@ -4437,13 +4449,13 @@
         <v>110</v>
       </c>
       <c r="J351" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K351" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L351" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -4454,13 +4466,13 @@
         <v>104</v>
       </c>
       <c r="J352" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K352" s="2" t="s">
         <v>249</v>
       </c>
       <c r="L352" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="353" spans="1:12" ht="84">
@@ -4468,13 +4480,13 @@
         <v>105</v>
       </c>
       <c r="J353" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K353" s="4" t="s">
         <v>250</v>
       </c>
       <c r="L353" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -4533,13 +4545,13 @@
         <v>112</v>
       </c>
       <c r="J357" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K357" s="2" t="s">
         <v>252</v>
       </c>
       <c r="L357" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="358" spans="1:12" ht="18.75">
@@ -4547,13 +4559,13 @@
         <v>113</v>
       </c>
       <c r="J358" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K358" s="8" t="s">
         <v>253</v>
       </c>
       <c r="L358" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="359" spans="1:12" ht="84">
@@ -4564,13 +4576,13 @@
         <v>114</v>
       </c>
       <c r="J359" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K359" s="4" t="s">
         <v>254</v>
       </c>
       <c r="L359" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="360" spans="1:12" ht="124.5">
@@ -4581,13 +4593,13 @@
         <v>115</v>
       </c>
       <c r="J360" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K360" s="4" t="s">
         <v>255</v>
       </c>
       <c r="L360" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="361" spans="1:12" ht="93.75">
@@ -4595,13 +4607,13 @@
         <v>116</v>
       </c>
       <c r="J361" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K361" s="9" t="s">
         <v>256</v>
       </c>
       <c r="L361" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -4624,13 +4636,13 @@
         <v>123</v>
       </c>
       <c r="J370" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K370" t="s">
         <v>257</v>
       </c>
       <c r="L370" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="372" spans="5:12">
